--- a/data/hotels_by_city/Houston/Houston_shard_180.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_180.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1146180-Reviews-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Days-Inn-By-Wyndham-Houston-East.h901558.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530841946548&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=bc0c1972-364e-4cae-bfab-203492f9e64d&amp;mctc=9&amp;exp_dp=72.24&amp;exp_ts=1530841947154&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,822 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r582530515-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1146180</t>
+  </si>
+  <si>
+    <t>582530515</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Friendly, convenient place to stay</t>
+  </si>
+  <si>
+    <t>Management pays attention to the Customers' comments and suggestions taking quick corrective action in case of any issue that arises during the stay this is the reason why I have become a regular guest of theirs: my second home.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nimesh P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Management pays attention to the Customers' comments and suggestions taking quick corrective action in case of any issue that arises during the stay this is the reason why I have become a regular guest of theirs: my second home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r580271099-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580271099</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay.</t>
+  </si>
+  <si>
+    <t>I'm a truck driver and my truck was being worked on at Freightliner, and so of the choices for places to stay at for two nights, I chose this place. It was a good choice. Bed could have been better, but it was comfortable enough.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Nimesh P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>I'm a truck driver and my truck was being worked on at Freightliner, and so of the choices for places to stay at for two nights, I chose this place. It was a good choice. Bed could have been better, but it was comfortable enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r573526743-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573526743</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Excellent place!!</t>
+  </si>
+  <si>
+    <t>Of the all choices surrounding this location, I'm really glad I picked this one. The staff treated me like family, and handled my request quickly. The room looked recently updated with modern furniture, and was very clean. Aside from a bad showerhead (which the owner/manager remedied immediately), everything was great. Thankfully the rooms are on the side of the building, which cuts down significantly on the traffic from I10. They had the basic free continental breakfast, but the day I was leaving, they started serving a hot breakfast as well. I couldn't have asked for a better place to take my break from truck driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P P, Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Of the all choices surrounding this location, I'm really glad I picked this one. The staff treated me like family, and handled my request quickly. The room looked recently updated with modern furniture, and was very clean. Aside from a bad showerhead (which the owner/manager remedied immediately), everything was great. Thankfully the rooms are on the side of the building, which cuts down significantly on the traffic from I10. They had the basic free continental breakfast, but the day I was leaving, they started serving a hot breakfast as well. I couldn't have asked for a better place to take my break from truck driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r551282872-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551282872</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r543257693-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543257693</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r509700392-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509700392</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Dissapointing</t>
+  </si>
+  <si>
+    <t>We spent 1 night here during our US trip. After spending 9 hours on a train from New Orleans, we were tired and wanted to get to our room. We gave our name and said we were checking in, and tried to hand the guy at the desk a voucher from the travel agent. He did not appear interested as he did not even bother to look at this. After spending several minutes typing into his computer he turns around and says the card payment for the room had been declined. We explained that the voucher we had shows prepayment from a big travel company, so it would not have been declined. Then after a few more minutes he returned with a key card for the room. No apology. The room was okay, it was spacious and the bed was comfortable, but we were glad to only be staying for one night. The white towels were a dirty off white colour like they hadn't been washed in weeks. I did not feel safe in the area as when we walked outside we were approached by a drug dealer. I wouldn't recommend staying, however it was fine for just one night. Receptionist was very unwelcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We spent 1 night here during our US trip. After spending 9 hours on a train from New Orleans, we were tired and wanted to get to our room. We gave our name and said we were checking in, and tried to hand the guy at the desk a voucher from the travel agent. He did not appear interested as he did not even bother to look at this. After spending several minutes typing into his computer he turns around and says the card payment for the room had been declined. We explained that the voucher we had shows prepayment from a big travel company, so it would not have been declined. Then after a few more minutes he returned with a key card for the room. No apology. The room was okay, it was spacious and the bed was comfortable, but we were glad to only be staying for one night. The white towels were a dirty off white colour like they hadn't been washed in weeks. I did not feel safe in the area as when we walked outside we were approached by a drug dealer. I wouldn't recommend staying, however it was fine for just one night. Receptionist was very unwelcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r440110759-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440110759</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>We found this location to be very acceptable. I think it recently had some renovation work done. It was a good value for the price and located conveniently to where we needed to go for this trip. The room was clean and everything worked in the room.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r435307681-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435307681</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>Truckers rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went there because my truck was in the shop. They are advertised there with a truckers rate. I was charged higher than the rate advertised. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r428977173-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428977173</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a pleasant stay. Good room with pleanty of lights and price was reasonable too. The internet worked good and coffee is really good in the morning. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r421344955-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421344955</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r421176701-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421176701</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>I like the rooms because it seems like they are installing new lights in the rooms and the moment you enter in the room there is pleanty of lights. If I want to read a book it make easy for me to read in every corner of the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r412086668-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412086668</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Beds were hard, doors not sealed good had gaps, bugs crawling on walls, no water pressure  in shower</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r397732099-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397732099</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r392999457-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392999457</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r380593745-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380593745</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r377403043-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377403043</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>As an OTR driver, this place was quite comfortable. Stayed here for a week while my truck was in the shop. Breakfast selections were small but they also had a freezer with desserts and little microwave meals. The room was a decent size and the bed was very comfortable. Bathroom was clean; my only thing was the water pressure kinda sucked when I was taking a shower. Several food places within walking distance and delivery menus available in the lobby as well as a Dominoes within delivery range. Cleaning staff doesn't know English well but you can still get the message across as to what you want done. Not to loud either for being right next to the interstate. MoreShow less</t>
+  </si>
+  <si>
+    <t>As an OTR driver, this place was quite comfortable. Stayed here for a week while my truck was in the shop. Breakfast selections were small but they also had a freezer with desserts and little microwave meals. The room was a decent size and the bed was very comfortable. Bathroom was clean; my only thing was the water pressure kinda sucked when I was taking a shower. Several food places within walking distance and delivery menus available in the lobby as well as a Dominoes within delivery range. Cleaning staff doesn't know English well but you can still get the message across as to what you want done. Not to loud either for being right next to the interstate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r369858341-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369858341</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r363815502-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363815502</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r339948369-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339948369</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>They have a shuttle for truck drivers, but it is available when they want to take or pick you up.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r338741697-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338741697</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r331595397-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331595397</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r310296664-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310296664</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r310259643-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310259643</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r298985553-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298985553</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>fair price</t>
+  </si>
+  <si>
+    <t>Other than a couple things the hotel is good an priced for truckers such as myself. The staff at the desk is very helpful an understanding. I appreciate that everyone had a smile when I talked to them.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r281672514-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281672514</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r273596440-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273596440</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Since TA won't accept my first review I will rewrite it with specifics.</t>
+  </si>
+  <si>
+    <t>The motel is in terrible shape. The carpet was filthy. All lampshades were too small for the lamps. The shower lever was almost unworkable. We envied the couple that complained about only 1 bottle of shampoo as we got only 1/2. The office staff was rude and unhelpful</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r260463773-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260463773</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Would never stop here again.</t>
+  </si>
+  <si>
+    <t>We were not treated with courtesy upon arrival and the manager refused to credit our Wyndam points.  He was unfriendly and made us feel very concerned about the security of the hotel.  The breakfast was inedible.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r256600428-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256600428</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r256270776-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256270776</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Nice but Loud!</t>
+  </si>
+  <si>
+    <t>The room was nice but it is on a frontage road that is right next to the interstate.  The traffic noise is very loud.  The staff was friendly and helpful and the king-size bed was nice.  The hotel could use someupdating in all areas, but was clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r253666077-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253666077</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r239709223-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239709223</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r238846548-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238846548</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r229508961-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229508961</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>At Half The Price It Would Be To Mutch</t>
+  </si>
+  <si>
+    <t>9/16/14If you don't know the area you should plan to get off the road around 3:PM. That way if you don't like the place you have time to look around, This place was showing it's age years ago. It is in bad need of upgrading. Half of the towels &amp; washed rags looked like they had been wash down on the river bank as they were turning brown. The bathroom may have been clean but did not look that good. The light beside bed did not have a bulb. There was three sets of Elec. plugs around the computer desk. One had a light and the TV plug in there, the other had the icebox and microwave in it and the last plug did not work. Now as for the breakfast, we took one look and went out to eat.We started out at Days Inn in Las Cruces, NM. where you could not ask for better. The further east we went the worse it got.Cap &amp; VirginiaMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>9/16/14If you don't know the area you should plan to get off the road around 3:PM. That way if you don't like the place you have time to look around, This place was showing it's age years ago. It is in bad need of upgrading. Half of the towels &amp; washed rags looked like they had been wash down on the river bank as they were turning brown. The bathroom may have been clean but did not look that good. The light beside bed did not have a bulb. There was three sets of Elec. plugs around the computer desk. One had a light and the TV plug in there, the other had the icebox and microwave in it and the last plug did not work. Now as for the breakfast, we took one look and went out to eat.We started out at Days Inn in Las Cruces, NM. where you could not ask for better. The further east we went the worse it got.Cap &amp; VirginiaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r222682859-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222682859</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r212206508-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212206508</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r205861021-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205861021</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r196020360-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196020360</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t>Truck was in the shop. They let us check in early. Our room was clean and had good selection of cable channels. Close to a Mexican restaurant and a store within walking distance. Would definitely stay here in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r189037416-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189037416</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r186652319-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186652319</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Good price, nice staff, clean room, good location off I-10. A little noisy but right off interstate so it is to be expected. Other than the noise, no issues. Good place to stay if passing through Houston or if you're looking for basic accommodations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r180690712-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180690712</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Days Inn Houston East</t>
+  </si>
+  <si>
+    <t>Hotel is at a good location to freeway entrance and exit. The hotel was fine except the bed could have been more comfortable.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r168034748-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168034748</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>our stay was short and we didn't have any problems with the...</t>
+  </si>
+  <si>
+    <t>our stay was short and we didn't have any problems with the room.  our only concern was the parking lot was small and at night a gate in the back of the parking lot was closed which made it hard to get to the other side.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r164851034-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164851034</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT LOACTION AND HOTEL</t>
+  </si>
+  <si>
+    <t>This stay was highly enjoyable. I stayed at Days Inn and i enjoy the staff and the room. It was clean and and the services was great. I would recommend anyone to stay at Days Inn. I felt safe and secure at the hotel. The breakfast was also wonderful.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r159996816-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159996816</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r158291902-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158291902</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r156421814-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156421814</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r147405173-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147405173</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r145024542-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145024542</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r144043481-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144043481</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r134153956-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134153956</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>room are clean bed was comfortable . Friendly staff, free shuttle to and from all truck repair shop in the area. less then 60.00 a night with discount. fresh  made waffles.cold cereal , juice, coffee in the morning. keep up the good work. and thanks</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r124292639-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124292639</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Good motel, great beds</t>
+  </si>
+  <si>
+    <t>Nice motel with friendly staff. Extremely comfortable beds, accommodating shuttle, no truck parking, and restaurants within walking distance. This motel is advertised at Houston Freightliner. If you have a truck needing repairs, the shuttle will pick you up and bring you back when needed.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r114362874-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114362874</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>great hotel for price and location</t>
+  </si>
+  <si>
+    <t>This is a top pick and we can see why! Very pleasant staff and family owned. They picked us up at the airport and we were at the hotel in a few minutes. We were visiting our kids who live in Austin and decided to use Houston as a meeting point.Since we needed 2 rooms price was important. Very close to attractions. Would recommend - can't go wrong for the price! Just be sure to request the first floor if you can't do stairs and there is no elevator,.Breakfast was also suprisingly good - we have low expectations generally but they actually had some home cooked eggs and sausage which was a nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This is a top pick and we can see why! Very pleasant staff and family owned. They picked us up at the airport and we were at the hotel in a few minutes. We were visiting our kids who live in Austin and decided to use Houston as a meeting point.Since we needed 2 rooms price was important. Very close to attractions. Would recommend - can't go wrong for the price! Just be sure to request the first floor if you can't do stairs and there is no elevator,.Breakfast was also suprisingly good - we have low expectations generally but they actually had some home cooked eggs and sausage which was a nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r53239699-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>53239699</t>
+  </si>
+  <si>
+    <t>01/11/2010</t>
+  </si>
+  <si>
+    <t>okay stay</t>
+  </si>
+  <si>
+    <t>hotel was nice, staff was friendly, would stay again</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r52044830-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>52044830</t>
+  </si>
+  <si>
+    <t>12/28/2009</t>
+  </si>
+  <si>
+    <t>Great Customer Service with Front Desk</t>
+  </si>
+  <si>
+    <t>I came here to help out a family member move and figured I would pick a not so expensive hotel.  The visit was pleasantly surprising.  The hotel was good.  They served a hot waffle in the morning as part of their continental breakfast but the Front Desk gave awsome customer service. Every day when I came back to the hotel (several days of packing and moving), they greeted me so sweetly.  They offered great tips of where to eat or order food.  They came to the room if I needed anything so I did not have to walk back to the desk.  Their names were Ajay and Judy.  These were the best little hosts at the Sugarland Days Inn in the Houston area.  It makes a difference when you are away from home and need some good customer service so if you need a hotel in the area, you can not go wrong. Ms. FosterAtlanta, GA visiting.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I came here to help out a family member move and figured I would pick a not so expensive hotel.  The visit was pleasantly surprising.  The hotel was good.  They served a hot waffle in the morning as part of their continental breakfast but the Front Desk gave awsome customer service. Every day when I came back to the hotel (several days of packing and moving), they greeted me so sweetly.  They offered great tips of where to eat or order food.  They came to the room if I needed anything so I did not have to walk back to the desk.  Their names were Ajay and Judy.  These were the best little hosts at the Sugarland Days Inn in the Houston area.  It makes a difference when you are away from home and need some good customer service so if you need a hotel in the area, you can not go wrong. Ms. FosterAtlanta, GA visiting.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1357,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1389,3382 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s">
+        <v>180</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>203</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>203</v>
+      </c>
+      <c r="O33" t="s">
+        <v>207</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" t="s">
+        <v>212</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>218</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>222</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>233</v>
+      </c>
+      <c r="J39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>235</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" t="s">
+        <v>239</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>235</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" t="s">
+        <v>242</v>
+      </c>
+      <c r="K41" t="s">
+        <v>243</v>
+      </c>
+      <c r="L41" t="s">
+        <v>244</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>245</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>247</v>
+      </c>
+      <c r="J42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>257</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>259</v>
+      </c>
+      <c r="J44" t="s">
+        <v>260</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>261</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45" t="s">
+        <v>264</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>267</v>
+      </c>
+      <c r="J46" t="s">
+        <v>268</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>269</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>273</v>
+      </c>
+      <c r="J47" t="s">
+        <v>274</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>275</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>277</v>
+      </c>
+      <c r="J48" t="s">
+        <v>278</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>281</v>
+      </c>
+      <c r="J49" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>283</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" t="s">
+        <v>287</v>
+      </c>
+      <c r="L50" t="s">
+        <v>288</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>289</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>291</v>
+      </c>
+      <c r="J51" t="s">
+        <v>292</v>
+      </c>
+      <c r="K51" t="s">
+        <v>293</v>
+      </c>
+      <c r="L51" t="s">
+        <v>294</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>295</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>297</v>
+      </c>
+      <c r="J52" t="s">
+        <v>298</v>
+      </c>
+      <c r="K52" t="s">
+        <v>299</v>
+      </c>
+      <c r="L52" t="s">
+        <v>300</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>301</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>305</v>
+      </c>
+      <c r="K53" t="s">
+        <v>306</v>
+      </c>
+      <c r="L53" t="s">
+        <v>307</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>308</v>
+      </c>
+      <c r="O53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>310</v>
+      </c>
+      <c r="J54" t="s">
+        <v>311</v>
+      </c>
+      <c r="K54" t="s">
+        <v>312</v>
+      </c>
+      <c r="L54" t="s">
+        <v>313</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>314</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_180.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_180.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r597901430-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1146180</t>
+  </si>
+  <si>
+    <t>597901430</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>I received an excellent customer service right from when I made the phone call reservation to check in and also check out. The position of the television in the room enable me to either sit and watch or lie down and watch relaxed. I recommend this hotel to any one on either business or pleasure trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nimesh P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded July 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2018</t>
+  </si>
+  <si>
+    <t>I received an excellent customer service right from when I made the phone call reservation to check in and also check out. The position of the television in the room enable me to either sit and watch or lie down and watch relaxed. I recommend this hotel to any one on either business or pleasure trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r584654365-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584654365</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Just needs a little work</t>
+  </si>
+  <si>
+    <t>Clean. Comfy bed. But terrible shower head and bathroom. I would still return. Just maybe you should put some money into repairing things the correct way. Not the cheap handy man way. Breakfast wasn’t anything more than cereal. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Nimesh P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Clean. Comfy bed. But terrible shower head and bathroom. I would still return. Just maybe you should put some money into repairing things the correct way. Not the cheap handy man way. Breakfast wasn’t anything more than cereal. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r582530515-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1146180</t>
-  </si>
-  <si>
     <t>582530515</t>
   </si>
   <si>
@@ -177,9 +234,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Nimesh P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded May 26, 2018</t>
   </si>
   <si>
@@ -204,9 +258,6 @@
     <t>I'm a truck driver and my truck was being worked on at Freightliner, and so of the choices for places to stay at for two nights, I chose this place. It was a good choice. Bed could have been better, but it was comfortable enough.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Nimesh P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded May 15, 2018</t>
   </si>
   <si>
@@ -240,6 +291,60 @@
     <t>Of the all choices surrounding this location, I'm really glad I picked this one. The staff treated me like family, and handled my request quickly. The room looked recently updated with modern furniture, and was very clean. Aside from a bad showerhead (which the owner/manager remedied immediately), everything was great. Thankfully the rooms are on the side of the building, which cuts down significantly on the traffic from I10. They had the basic free continental breakfast, but the day I was leaving, they started serving a hot breakfast as well. I couldn't have asked for a better place to take my break from truck driving.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r572739134-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572739134</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>My experience at Days Inn in Houston Texas</t>
+  </si>
+  <si>
+    <t>The motel was wonderful and the staff was very nice and friendly they treated me like I was at home and my room was really clean and the bed was very relaxing I slept like a baby if you want a really nice place to go that would be the place for youMoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P P, General Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>The motel was wonderful and the staff was very nice and friendly they treated me like I was at home and my room was really clean and the bed was very relaxing I slept like a baby if you want a really nice place to go that would be the place for youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r568337233-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568337233</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>The room was very nice!!! The lady at t he front desk was also very helpful wherever I needed something. Very nice environment. The owner of the property was also very nice, when something wouldn't work he would come right to the room to solve the problem. Also the room was exquiset! So clean!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nick P P, Manager at Days Inn by Wyndham Houston East, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>The room was very nice!!! The lady at t he front desk was also very helpful wherever I needed something. Very nice environment. The owner of the property was also very nice, when something wouldn't work he would come right to the room to solve the problem. Also the room was exquiset! So clean!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r551282872-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,9 +357,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r543257693-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -291,6 +393,36 @@
     <t>We spent 1 night here during our US trip. After spending 9 hours on a train from New Orleans, we were tired and wanted to get to our room. We gave our name and said we were checking in, and tried to hand the guy at the desk a voucher from the travel agent. He did not appear interested as he did not even bother to look at this. After spending several minutes typing into his computer he turns around and says the card payment for the room had been declined. We explained that the voucher we had shows prepayment from a big travel company, so it would not have been declined. Then after a few more minutes he returned with a key card for the room. No apology. The room was okay, it was spacious and the bed was comfortable, but we were glad to only be staying for one night. The white towels were a dirty off white colour like they hadn't been washed in weeks. I did not feel safe in the area as when we walked outside we were approached by a drug dealer. I wouldn't recommend staying, however it was fine for just one night. Receptionist was very unwelcoming.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r487712765-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487712765</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>A good deal in a safe convenient part of town</t>
+  </si>
+  <si>
+    <t>We've stayed here several times when we go to Houston. It's a good simple deal kind of place. It's Kept clean. The owners are friendly. It's right outside of Houston proper, so it's convenient to downtown but still a safe area with plenty of stores, restaurant, gas stations, etc....</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r467936042-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467936042</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r440110759-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -342,6 +474,42 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r426889002-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426889002</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Needs Improvment</t>
+  </si>
+  <si>
+    <t>Guest Services - After a long drive from El Paso, front desk was not friendly, was not accommodating to providing extra towels (had to ask and explain why) and they were not delivered.Room - Room was at extremely cold at 63 degrees when walked in and the air conditioner (loud)  made it impossible to get a good nights rest.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r425633764-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425633764</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>I called to check availability and they offered me a single...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I called to check availability and they offered me a single room and 15 minutes later when I got there they said there was only double. It was clean and comfortable. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r421344955-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -351,9 +519,6 @@
     <t>09/22/2016</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r421176701-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -384,6 +549,30 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r406796764-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406796764</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management food and beverage </t>
+  </si>
+  <si>
+    <t>This place was great, friendly people who know how to treat you. Clean rooms, great smiles, talk to nick he'll take care of your needs. Great location and lot's to do. All around place, food everywhere near by. Again clean rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r402636071-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402636071</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r397732099-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -420,6 +609,36 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r379547368-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379547368</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great customer service rooms were nice and clean enjoyed the swimming pool located in a decent area restaurant choices are not bad grocery store within walking distance and shuttle service is on time </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r377629774-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377629774</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>low cost equals low class</t>
+  </si>
+  <si>
+    <t>Horrible experience the hotel was misrepresented  on the  Internet the room smelt of cigarette smoke so thick it was difficult for me to breathe, I couldn't wait to get out of there</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r377403043-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,6 +678,33 @@
     <t>04/13/2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r362151620-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362151620</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r361751029-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361751029</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>Front desk Personnel very rude acted as if I were bothering him to check me in. I don't know if it was because he also had to drive someone to the airport but that's no excuse for being rude</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r339948369-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -498,6 +744,36 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r322231587-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322231587</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r313124539-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313124539</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r310296664-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -507,9 +783,6 @@
     <t>09/14/2015</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r310259643-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -534,6 +807,39 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r289349877-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289349877</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Its nothing great .. you get what you pay for</t>
+  </si>
+  <si>
+    <t>Had to stay 2 days because of a break down on my frieghtliner. .. the shop stated that's where the drivers go... well all i can tell you is ... you get what you pay for. .. god luck ..God blessThe blessing is there is a wonderful mexican restaurant a half a block away...</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r286570038-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286570038</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Family Reunion 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel room was very clean and beat. We stayed in room 224. There were just minor cosmetic issues such as paint and stains in bathtub that need to be addressed. Room had a flat screen TV, desk area, and King sized bed. We were missing our iron and ironing board, as well as coffee pot. Not sure if you have to ask front desk for these items, but we did not need them during our stay. Overall, I would stay again. I encourage the fixing of cosmetic issues mentioned,  it will make the rooms much nicer. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r281672514-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -582,18 +888,42 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r257727829-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257727829</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Sister's weekend</t>
+  </si>
+  <si>
+    <t>scale of 1-5:  5 for near freeway, 1 for freeway noise, 4 for breakfast, loved the Texas waffles and hard boiled eggs, staff--  5 for the younger fella, other fellas 2-3 not very welcoming, Room was clean and linens, only one small shampoo for two people, dated carpet and painted walls inside and out. Over all needs an update. Price was about right for this place. We observed one young lady come and ask about prices and male on duty put out a price and did not even try and work with her to keep her, so she walked out. Our price was much lower so know they could accommodate or ask her if she had AAA or some other card for a better price.  Location on freeway service drive was great for getting around Houston, just need to soundproof better windows and doors.  Computer had difficulty printing out our boarding passes, finally the young fella came out and helped, he seemed to be most helpful and wanting to please all travelers.  If you  are looking for an inexpensive place and ok with dated rooms just for sleeping you will be ok here. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>scale of 1-5:  5 for near freeway, 1 for freeway noise, 4 for breakfast, loved the Texas waffles and hard boiled eggs, staff--  5 for the younger fella, other fellas 2-3 not very welcoming, Room was clean and linens, only one small shampoo for two people, dated carpet and painted walls inside and out. Over all needs an update. Price was about right for this place. We observed one young lady come and ask about prices and male on duty put out a price and did not even try and work with her to keep her, so she walked out. Our price was much lower so know they could accommodate or ask her if she had AAA or some other card for a better price.  Location on freeway service drive was great for getting around Houston, just need to soundproof better windows and doors.  Computer had difficulty printing out our boarding passes, finally the young fella came out and helped, he seemed to be most helpful and wanting to please all travelers.  If you  are looking for an inexpensive place and ok with dated rooms just for sleeping you will be ok here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r256629680-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256629680</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r256600428-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
     <t>256600428</t>
   </si>
   <si>
-    <t>02/26/2015</t>
-  </si>
-  <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r256270776-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -618,6 +948,33 @@
     <t>02/11/2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r245279142-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245279142</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>Outdated furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I  was in two different rooms during my stay at Days Inn. The desk chairs in both rooms were different styles. The main thing I want to complain about is the cushion was wore out of in each room I was in and the sitting chairs were dirty and outdated. </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r243940924-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243940924</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r239709223-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -639,9 +996,6 @@
     <t>11/08/2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r229508961-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -663,6 +1017,33 @@
     <t>9/16/14If you don't know the area you should plan to get off the road around 3:PM. That way if you don't like the place you have time to look around, This place was showing it's age years ago. It is in bad need of upgrading. Half of the towels &amp; washed rags looked like they had been wash down on the river bank as they were turning brown. The bathroom may have been clean but did not look that good. The light beside bed did not have a bulb. There was three sets of Elec. plugs around the computer desk. One had a light and the TV plug in there, the other had the icebox and microwave in it and the last plug did not work. Now as for the breakfast, we took one look and went out to eat.We started out at Days Inn in Las Cruces, NM. where you could not ask for better. The further east we went the worse it got.Cap &amp; VirginiaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r226017846-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226017846</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r223751289-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223751289</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>This was the best days inn I have stayed ay yet. The none smoking room dId not smell likeCigarettes. The ac was on so room was not hot and did not take all night to get to a good sleeping temp.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r222682859-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -699,6 +1080,39 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r205458850-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205458850</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Discusting</t>
+  </si>
+  <si>
+    <t>Worst hotel ever. Towels discolor, they are old and need replaced. The sheets on the bed look 10 years old with holes in them. No security on the property, looks like this Days Inn should be a rent by the hour motel. Very bad. I should have stayed the night in my vehicle at least I would have slept and felt safer. This motel doors open to the outside. This motel makes it a great hang out for riffraff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r196351082-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196351082</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>For price, good value</t>
+  </si>
+  <si>
+    <t>We are not staying at a 5 star hotel so you get what you pay for. With a couple I paid $49.99 + tax. Room was clean enough. Bedding good. Ok bathroom.  Nothing special  but it was clean &amp;smelled good.  The hotel was full so they must be doing something right.     You can't say much for the breakfast. It's the same as La Quinta. Waffles, hard boiled eggs, cold cereal.  No selection on oatmeal. Just sweet apple cinnamon. But I'm not staying for the breakfast.I want clean room at a good price. This is what I got. Try Tostada Regia next door. Great real mexican food....</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r196020360-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -738,6 +1152,33 @@
     <t>Good price, nice staff, clean room, good location off I-10. A little noisy but right off interstate so it is to be expected. Other than the noise, no issues. Good place to stay if passing through Houston or if you're looking for basic accommodations.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r184537100-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184537100</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>Excellent room for a great price. Nice quiet area. Room was big and spacious. Bed was extremely comfortable. I liked the fact that there is no carpet. Secured area. One way in and one way out. Definitely would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r184108809-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184108809</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r180690712-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -792,6 +1233,33 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r163391125-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163391125</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r160499580-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160499580</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>good hotel does exactly what it says on the tin, when you visit make and you want to travel around make sure you ask for Tony the best driver you have ever had he knows the good restuarants and where to buy great cowboy hats</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r159996816-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -801,9 +1269,6 @@
     <t>05/07/2013</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r158291902-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -825,13 +1290,43 @@
     <t>04/02/2013</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>March 2013</t>
   </si>
   <si>
-    <t>More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r155025910-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155025910</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>This hotel has been modernized compared to a lot of Days Inn. The bed spreads still look like there from the 80's but you could tell/smell it was clean.  You get 3 comfortable pillows per bed which to me makes a hotel go up in points. The bathrooms are newly renovated and the shower has good pressure. Parking is tight so if you have a big vehicle contact before booking. The only thing that bugged me was the front desk calling at 11:00am. I got in at 4:00am and the guy told me the checkout time was 11:00am. I got a call at 11:00am on the dot waking me up to check out. I had an alarm set people its not like you had a line of people waiting to reserve that room the next night! I got the impression that management isn't really looking for repeat business, so I personally won't give it to them. But I didn't want to leave a bad review because it was a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has been modernized compared to a lot of Days Inn. The bed spreads still look like there from the 80's but you could tell/smell it was clean.  You get 3 comfortable pillows per bed which to me makes a hotel go up in points. The bathrooms are newly renovated and the shower has good pressure. Parking is tight so if you have a big vehicle contact before booking. The only thing that bugged me was the front desk calling at 11:00am. I got in at 4:00am and the guy told me the checkout time was 11:00am. I got a call at 11:00am on the dot waking me up to check out. I had an alarm set people its not like you had a line of people waiting to reserve that room the next night! I got the impression that management isn't really looking for repeat business, so I personally won't give it to them. But I didn't want to leave a bad review because it was a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r152112656-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152112656</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>very disappointed</t>
+  </si>
+  <si>
+    <t>overall the hotel is very nice, clean and comfortable, my major problem with the hotel is that i did not sleep at all, I-10 is so close that you can hear the trucks and cars driving by all night. I might as well have been outside. I was in room 229 maybe on the other side of hotel it would have been better.  i'm not sure why it was so loud, the door did not have any gaps, maybe a/c unit.  hotel had a pool,  but i did not use it. breakfast was typical waffles and cereal</t>
+  </si>
+  <si>
+    <t>February 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r147405173-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
@@ -870,6 +1365,30 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r143527762-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143527762</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Very affordable place with large, clean rooms but odd airport shuttle schedule.</t>
+  </si>
+  <si>
+    <t>The price was very, very reasonable. The rooms were quite large (seperate sleeping area and living room area, some rooms have a kitchenette). The hotel was quite clean and quiet as well.There is no room service but there are restaurants near by and restaurants that deliver to the hotel. The shuttle works on strange hours, it's not available all the time and it was actually never available when I needed it. The taxi from the aiport to the hotel was about $30. It's nearby to some stores (Best Buy, Wal Mart, Ross) and fast food places (Subway, Tampicos). I stayed there twice and would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r142437742-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142437742</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r134153956-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1444,45 @@
   </si>
   <si>
     <t>This is a top pick and we can see why! Very pleasant staff and family owned. They picked us up at the airport and we were at the hotel in a few minutes. We were visiting our kids who live in Austin and decided to use Houston as a meeting point.Since we needed 2 rooms price was important. Very close to attractions. Would recommend - can't go wrong for the price! Just be sure to request the first floor if you can't do stairs and there is no elevator,.Breakfast was also suprisingly good - we have low expectations generally but they actually had some home cooked eggs and sausage which was a nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r66560661-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>66560661</t>
+  </si>
+  <si>
+    <t>06/05/2010</t>
+  </si>
+  <si>
+    <t>Thief in the middle of the night...</t>
+  </si>
+  <si>
+    <t>Thought the hotel was decent for the price point for my extended stay (5 wks). First the lie from the hotel desk when I was informed I would get two days free but at check-out was not the case was the first bad point. Then the missing iphone ear-buds that came up missing after the house-keeper had her family along with her during her cleaning duties, bad point number two. The grand finale was the last night of the stay, my truck tailgate was stolen right off my truck in their so-called secured parking lot. Does have camera coverage but not much surprised they could not pull any license plate number of their cameras when needed. Word to the wise...although the price might have been great for an extended stay, I would keep on moving to a better hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Thought the hotel was decent for the price point for my extended stay (5 wks). First the lie from the hotel desk when I was informed I would get two days free but at check-out was not the case was the first bad point. Then the missing iphone ear-buds that came up missing after the house-keeper had her family along with her during her cleaning duties, bad point number two. The grand finale was the last night of the stay, my truck tailgate was stolen right off my truck in their so-called secured parking lot. Does have camera coverage but not much surprised they could not pull any license plate number of their cameras when needed. Word to the wise...although the price might have been great for an extended stay, I would keep on moving to a better hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r65188146-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>65188146</t>
+  </si>
+  <si>
+    <t>05/24/2010</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>The hotel is simple, but very confortable, clean and tranquil. The breakfast is varied and the prices are very cheap: U$37.00 daily. The localization is excellent for purchase. He's close of the Best Buy, Macy's, Target, Krog's, DSW, Marshal"s, Walgreens ,and Starbuck's. Great!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1146180-r53239699-Days_Inn_by_Wyndham_Houston_East-Houston_Texas.html</t>
@@ -1492,37 +2050,47 @@
         <v>49</v>
       </c>
       <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1538,31 +2106,31 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>62</v>
@@ -1620,41 +2188,31 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1670,7 +2228,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1679,44 +2237,44 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1731,7 +2289,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1740,44 +2298,54 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1792,7 +2360,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1801,45 +2369,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -1855,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1864,25 +2430,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1893,10 +2459,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1912,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1921,50 +2491,44 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1979,7 +2543,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1988,50 +2552,44 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>106</v>
-      </c>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2046,7 +2604,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2055,44 +2613,46 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2107,7 +2667,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2116,39 +2676,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2164,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2173,34 +2743,30 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -2214,9 +2780,7 @@
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>120</v>
-      </c>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2231,7 +2795,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2240,44 +2804,40 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2292,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2301,44 +2861,50 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
       </c>
       <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2353,7 +2919,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2362,44 +2928,50 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2414,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2423,39 +2995,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2471,7 +3053,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2480,44 +3062,50 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2532,7 +3120,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2541,24 +3129,24 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
@@ -2567,11 +3155,11 @@
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2593,7 +3181,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2602,49 +3190,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -2660,7 +3238,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2669,44 +3247,50 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
         <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2721,7 +3305,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2730,44 +3314,40 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2782,7 +3362,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2791,33 +3371,33 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2843,7 +3423,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2852,37 +3432,37 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2904,7 +3484,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2913,50 +3493,44 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" t="s">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
-      <c r="Y25" t="s">
-        <v>170</v>
-      </c>
+      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2971,7 +3545,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2980,37 +3554,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3032,7 +3606,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3041,25 +3615,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3073,7 +3647,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
@@ -3089,7 +3663,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3098,37 +3672,37 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3140,7 +3714,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
@@ -3156,7 +3730,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3165,44 +3739,40 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
+      <c r="Y29" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3217,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3226,46 +3796,44 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
-      </c>
-      <c r="K30" t="s">
-        <v>195</v>
-      </c>
-      <c r="L30" t="s">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>196</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3280,7 +3848,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3289,24 +3857,24 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
@@ -3315,11 +3883,11 @@
         <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3341,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3350,37 +3918,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3402,7 +3970,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3411,33 +3979,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+        <v>225</v>
+      </c>
+      <c r="K33" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" t="s">
+        <v>227</v>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3448,7 +4020,9 @@
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
+      <c r="Y33" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3463,7 +4037,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3472,32 +4046,38 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J34" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
-        <v>213</v>
-      </c>
-      <c r="O34" t="s">
-        <v>83</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
       <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>2</v>
@@ -3508,7 +4088,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
@@ -3524,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3533,37 +4113,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J35" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3585,7 +4165,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3594,28 +4174,38 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="J36" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
       <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>241</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -3636,7 +4226,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3645,44 +4235,48 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="J37" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+      <c r="L37" t="s">
+        <v>245</v>
+      </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
+      <c r="Y37" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3697,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3706,27 +4300,27 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
-      </c>
-      <c r="K38" t="s">
-        <v>230</v>
-      </c>
-      <c r="L38" t="s">
-        <v>231</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>4</v>
@@ -3736,16 +4330,14 @@
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s">
-        <v>231</v>
-      </c>
+      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3760,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3769,37 +4361,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="J39" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3821,7 +4413,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3830,50 +4422,44 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="J40" t="s">
-        <v>238</v>
-      </c>
-      <c r="K40" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>251</v>
+      </c>
+      <c r="O40" t="s">
         <v>105</v>
       </c>
-      <c r="L40" t="s">
-        <v>239</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>235</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
-      <c r="Y40" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3888,7 +4474,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3897,31 +4483,31 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="J41" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
         <v>4</v>
@@ -3931,7 +4517,7 @@
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3939,7 +4525,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
@@ -3955,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -3964,49 +4550,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="J42" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="K42" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
@@ -4022,7 +4598,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4031,37 +4607,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="J43" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4073,7 +4649,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44">
@@ -4089,7 +4665,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4098,37 +4674,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="J44" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4150,7 +4726,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4159,44 +4735,40 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="J45" t="s">
-        <v>264</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>280</v>
+      </c>
+      <c r="K45" t="s">
+        <v>281</v>
+      </c>
+      <c r="L45" t="s">
+        <v>282</v>
+      </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
+      <c r="Y45" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4211,7 +4783,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4220,39 +4792,41 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="J46" t="s">
-        <v>268</v>
-      </c>
-      <c r="K46" t="s"/>
+        <v>286</v>
+      </c>
+      <c r="K46" t="s">
+        <v>287</v>
+      </c>
       <c r="L46" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
         <v>3</v>
       </c>
       <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
         <v>2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4260,7 +4834,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47">
@@ -4276,7 +4850,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4285,34 +4859,50 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+        <v>292</v>
+      </c>
+      <c r="K47" t="s">
+        <v>293</v>
+      </c>
+      <c r="L47" t="s">
+        <v>294</v>
+      </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4327,7 +4917,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4336,37 +4926,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="J48" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4388,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4397,37 +4987,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="J49" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="O49" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4449,7 +5039,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4458,41 +5048,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="J50" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="K50" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
         <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4500,7 +5086,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
@@ -4516,7 +5102,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4525,50 +5111,44 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
-      </c>
-      <c r="K51" t="s">
-        <v>293</v>
-      </c>
-      <c r="L51" t="s">
-        <v>294</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
         <v>295</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s">
-        <v>294</v>
-      </c>
+      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4583,7 +5163,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4592,37 +5172,41 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="J52" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="K52" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="L52" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -4630,7 +5214,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53">
@@ -4646,7 +5230,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4655,50 +5239,34 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="J53" t="s">
-        <v>305</v>
-      </c>
-      <c r="K53" t="s">
-        <v>306</v>
-      </c>
-      <c r="L53" t="s">
-        <v>307</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O53" t="s">
-        <v>83</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>4</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>307</v>
-      </c>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4713,7 +5281,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -4722,49 +5290,2315 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J54" t="s">
-        <v>311</v>
-      </c>
-      <c r="K54" t="s">
-        <v>312</v>
-      </c>
-      <c r="L54" t="s">
-        <v>313</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s">
-        <v>315</v>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>324</v>
+      </c>
+      <c r="J55" t="s">
+        <v>325</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>322</v>
+      </c>
+      <c r="O55" t="s">
+        <v>158</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>327</v>
+      </c>
+      <c r="J56" t="s">
+        <v>328</v>
+      </c>
+      <c r="K56" t="s">
+        <v>329</v>
+      </c>
+      <c r="L56" t="s">
+        <v>330</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>331</v>
+      </c>
+      <c r="O56" t="s">
+        <v>117</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>333</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>334</v>
+      </c>
+      <c r="J57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>336</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>337</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>338</v>
+      </c>
+      <c r="J58" t="s">
+        <v>339</v>
+      </c>
+      <c r="K58" t="s">
+        <v>340</v>
+      </c>
+      <c r="L58" t="s">
+        <v>341</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>336</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>343</v>
+      </c>
+      <c r="J59" t="s">
+        <v>344</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>345</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>346</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" t="s">
+        <v>348</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>349</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>350</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>351</v>
+      </c>
+      <c r="J61" t="s">
+        <v>352</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>353</v>
+      </c>
+      <c r="O61" t="s">
+        <v>105</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>355</v>
+      </c>
+      <c r="J62" t="s">
+        <v>356</v>
+      </c>
+      <c r="K62" t="s">
+        <v>357</v>
+      </c>
+      <c r="L62" t="s">
+        <v>358</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>353</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>359</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>360</v>
+      </c>
+      <c r="J63" t="s">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s">
+        <v>362</v>
+      </c>
+      <c r="L63" t="s">
+        <v>363</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>364</v>
+      </c>
+      <c r="O63" t="s">
+        <v>105</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>365</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>366</v>
+      </c>
+      <c r="J64" t="s">
+        <v>367</v>
+      </c>
+      <c r="K64" t="s">
+        <v>368</v>
+      </c>
+      <c r="L64" t="s">
+        <v>369</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>370</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>371</v>
+      </c>
+      <c r="J65" t="s">
+        <v>372</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>373</v>
+      </c>
+      <c r="O65" t="s">
+        <v>117</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>374</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>375</v>
+      </c>
+      <c r="J66" t="s">
+        <v>376</v>
+      </c>
+      <c r="K66" t="s">
+        <v>149</v>
+      </c>
+      <c r="L66" t="s">
+        <v>377</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>373</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>378</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>379</v>
+      </c>
+      <c r="J67" t="s">
+        <v>380</v>
+      </c>
+      <c r="K67" t="s">
+        <v>381</v>
+      </c>
+      <c r="L67" t="s">
+        <v>382</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>383</v>
+      </c>
+      <c r="O67" t="s">
+        <v>105</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>384</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" t="s">
+        <v>386</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>383</v>
+      </c>
+      <c r="O68" t="s">
+        <v>117</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>388</v>
+      </c>
+      <c r="J69" t="s">
+        <v>389</v>
+      </c>
+      <c r="K69" t="s">
+        <v>390</v>
+      </c>
+      <c r="L69" t="s">
+        <v>391</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>392</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>393</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>394</v>
+      </c>
+      <c r="J70" t="s">
+        <v>395</v>
+      </c>
+      <c r="K70" t="s">
+        <v>396</v>
+      </c>
+      <c r="L70" t="s">
+        <v>397</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>398</v>
+      </c>
+      <c r="O70" t="s">
+        <v>105</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>399</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>400</v>
+      </c>
+      <c r="J71" t="s">
+        <v>401</v>
+      </c>
+      <c r="K71" t="s">
+        <v>402</v>
+      </c>
+      <c r="L71" t="s">
+        <v>403</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>404</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>406</v>
+      </c>
+      <c r="J72" t="s">
+        <v>407</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>404</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>408</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>409</v>
+      </c>
+      <c r="J73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K73" t="s">
+        <v>411</v>
+      </c>
+      <c r="L73" t="s">
+        <v>412</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>413</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>414</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>415</v>
+      </c>
+      <c r="J74" t="s">
+        <v>416</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>413</v>
+      </c>
+      <c r="O74" t="s">
+        <v>117</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>417</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>418</v>
+      </c>
+      <c r="J75" t="s">
+        <v>419</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>420</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>421</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>422</v>
+      </c>
+      <c r="J76" t="s">
+        <v>423</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>245</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>424</v>
+      </c>
+      <c r="O76" t="s">
+        <v>105</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>425</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>426</v>
+      </c>
+      <c r="J77" t="s">
+        <v>427</v>
+      </c>
+      <c r="K77" t="s">
+        <v>428</v>
+      </c>
+      <c r="L77" t="s">
+        <v>429</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>431</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>432</v>
+      </c>
+      <c r="J78" t="s">
+        <v>433</v>
+      </c>
+      <c r="K78" t="s">
+        <v>434</v>
+      </c>
+      <c r="L78" t="s">
+        <v>435</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>436</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>437</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>438</v>
+      </c>
+      <c r="J79" t="s">
+        <v>439</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>440</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>441</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>442</v>
+      </c>
+      <c r="J80" t="s">
+        <v>443</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>444</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>446</v>
+      </c>
+      <c r="J81" t="s">
+        <v>447</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>448</v>
+      </c>
+      <c r="O81" t="s">
+        <v>117</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>449</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>450</v>
+      </c>
+      <c r="J82" t="s">
+        <v>451</v>
+      </c>
+      <c r="K82" t="s">
+        <v>452</v>
+      </c>
+      <c r="L82" t="s">
+        <v>453</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>448</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>454</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>455</v>
+      </c>
+      <c r="J83" t="s">
+        <v>456</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>245</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>448</v>
+      </c>
+      <c r="O83" t="s">
+        <v>117</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>457</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>458</v>
+      </c>
+      <c r="J84" t="s">
+        <v>459</v>
+      </c>
+      <c r="K84" t="s">
+        <v>460</v>
+      </c>
+      <c r="L84" t="s">
+        <v>461</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>462</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>463</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>464</v>
+      </c>
+      <c r="J85" t="s">
+        <v>465</v>
+      </c>
+      <c r="K85" t="s">
+        <v>466</v>
+      </c>
+      <c r="L85" t="s">
+        <v>467</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>468</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>469</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>470</v>
+      </c>
+      <c r="J86" t="s">
+        <v>471</v>
+      </c>
+      <c r="K86" t="s">
+        <v>472</v>
+      </c>
+      <c r="L86" t="s">
+        <v>473</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>474</v>
+      </c>
+      <c r="O86" t="s">
+        <v>105</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>476</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>477</v>
+      </c>
+      <c r="J87" t="s">
+        <v>478</v>
+      </c>
+      <c r="K87" t="s">
+        <v>479</v>
+      </c>
+      <c r="L87" t="s">
+        <v>480</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>481</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>483</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>484</v>
+      </c>
+      <c r="J88" t="s">
+        <v>485</v>
+      </c>
+      <c r="K88" t="s">
+        <v>486</v>
+      </c>
+      <c r="L88" t="s">
+        <v>487</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>488</v>
+      </c>
+      <c r="O88" t="s">
+        <v>117</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>489</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>490</v>
+      </c>
+      <c r="J89" t="s">
+        <v>491</v>
+      </c>
+      <c r="K89" t="s">
+        <v>492</v>
+      </c>
+      <c r="L89" t="s">
+        <v>493</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>494</v>
+      </c>
+      <c r="O89" t="s">
+        <v>117</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8008</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>495</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>496</v>
+      </c>
+      <c r="J90" t="s">
+        <v>497</v>
+      </c>
+      <c r="K90" t="s">
+        <v>498</v>
+      </c>
+      <c r="L90" t="s">
+        <v>499</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>500</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
